--- a/eComerce/Banco de dados eComerce.xlsx
+++ b/eComerce/Banco de dados eComerce.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imelqui/Documents/Projetos_Cod/Bootcamp/eComerce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A1EE62-A7F6-E242-9E07-12CE7772EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD54A221-3811-E744-BACF-1B6AF0FF89BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14340" xr2:uid="{4296B96A-EF3C-6449-A603-9F6D4D42D96B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14340" activeTab="1" xr2:uid="{4296B96A-EF3C-6449-A603-9F6D4D42D96B}"/>
   </bookViews>
   <sheets>
     <sheet name="ERR" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,11 +32,99 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Serviço</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>IdNome</t>
+  </si>
+  <si>
+    <t>CarroIdNome</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>F.Pagamento</t>
+  </si>
+  <si>
+    <t>Garantia</t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>IdNome VARCHAR (30)</t>
+  </si>
+  <si>
+    <t>CPF VARCHAR (11)</t>
+  </si>
+  <si>
+    <t>Cel VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Endereço VARCHAR (40)</t>
+  </si>
+  <si>
+    <t>IdNome VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Marca VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Modelo VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Ano INT</t>
+  </si>
+  <si>
+    <t>Cor VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Valor FLOAT</t>
+  </si>
+  <si>
+    <t>Tempo FLOAT</t>
+  </si>
+  <si>
+    <t>Descrição VARCHAR (60)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -71,6 +160,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3701,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DCBF3-23B2-9849-8C2B-92F5E01127A0}">
   <dimension ref="C1:V5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
@@ -3727,4 +3819,113 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCA9135-BD83-5C40-B4E7-1A67EA6F8BB5}">
+  <dimension ref="D4:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>